--- a/natmiOut/OldD2/LR-pairs_lrc2p/Fgf18-Fgfr1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Fgf18-Fgfr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Fgfr1</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.618930008237604</v>
+        <v>0.638861</v>
       </c>
       <c r="H2">
-        <v>0.618930008237604</v>
+        <v>1.277722</v>
       </c>
       <c r="I2">
-        <v>0.1262312231500984</v>
+        <v>0.1058208177499626</v>
       </c>
       <c r="J2">
-        <v>0.1262312231500984</v>
+        <v>0.07631084478658147</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.552684602533731</v>
+        <v>10.077153</v>
       </c>
       <c r="N2">
-        <v>9.552684602533731</v>
+        <v>20.154306</v>
       </c>
       <c r="O2">
-        <v>0.08903631199983512</v>
+        <v>0.08561976287781047</v>
       </c>
       <c r="P2">
-        <v>0.08903631199983512</v>
+        <v>0.06709546746404282</v>
       </c>
       <c r="Q2">
-        <v>5.912443159737435</v>
+        <v>6.437900042732999</v>
       </c>
       <c r="R2">
-        <v>5.912443159737435</v>
+        <v>25.751600170932</v>
       </c>
       <c r="S2">
-        <v>0.01123916256851297</v>
+        <v>0.009060353323287791</v>
       </c>
       <c r="T2">
-        <v>0.01123916256851297</v>
+        <v>0.005120111803531699</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.618930008237604</v>
+        <v>0.638861</v>
       </c>
       <c r="H3">
-        <v>0.618930008237604</v>
+        <v>1.277722</v>
       </c>
       <c r="I3">
-        <v>0.1262312231500984</v>
+        <v>0.1058208177499626</v>
       </c>
       <c r="J3">
-        <v>0.1262312231500984</v>
+        <v>0.07631084478658147</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>52.5510556573628</v>
+        <v>56.16712533333333</v>
       </c>
       <c r="N3">
-        <v>52.5510556573628</v>
+        <v>168.501376</v>
       </c>
       <c r="O3">
-        <v>0.4898049482538784</v>
+        <v>0.4772197020892965</v>
       </c>
       <c r="P3">
-        <v>0.4898049482538784</v>
+        <v>0.560955985835208</v>
       </c>
       <c r="Q3">
-        <v>32.52542531090635</v>
+        <v>35.88298585757867</v>
       </c>
       <c r="R3">
-        <v>32.52542531090635</v>
+        <v>215.297915145472</v>
       </c>
       <c r="S3">
-        <v>0.06182867772305773</v>
+        <v>0.05049977912148287</v>
       </c>
       <c r="T3">
-        <v>0.06182867772305773</v>
+        <v>0.04280702516717435</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.618930008237604</v>
+        <v>0.638861</v>
       </c>
       <c r="H4">
-        <v>0.618930008237604</v>
+        <v>1.277722</v>
       </c>
       <c r="I4">
-        <v>0.1262312231500984</v>
+        <v>0.1058208177499626</v>
       </c>
       <c r="J4">
-        <v>0.1262312231500984</v>
+        <v>0.07631084478658147</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.889687520140936</v>
+        <v>0.9207109999999999</v>
       </c>
       <c r="N4">
-        <v>0.889687520140936</v>
+        <v>2.762133</v>
       </c>
       <c r="O4">
-        <v>0.008292380510984035</v>
+        <v>0.007822750880034444</v>
       </c>
       <c r="P4">
-        <v>0.008292380510984035</v>
+        <v>0.009195385087080598</v>
       </c>
       <c r="Q4">
-        <v>0.5506543041697231</v>
+        <v>0.588206350171</v>
       </c>
       <c r="R4">
-        <v>0.5506543041697231</v>
+        <v>3.529238101026</v>
       </c>
       <c r="S4">
-        <v>0.001046757334727553</v>
+        <v>0.0008278098951794842</v>
       </c>
       <c r="T4">
-        <v>0.001046757334727553</v>
+        <v>0.0007017076041330535</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.618930008237604</v>
+        <v>0.638861</v>
       </c>
       <c r="H5">
-        <v>0.618930008237604</v>
+        <v>1.277722</v>
       </c>
       <c r="I5">
-        <v>0.1262312231500984</v>
+        <v>0.1058208177499626</v>
       </c>
       <c r="J5">
-        <v>0.1262312231500984</v>
+        <v>0.07631084478658147</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.27656000284942</v>
+        <v>1.441214666666667</v>
       </c>
       <c r="N5">
-        <v>1.27656000284942</v>
+        <v>4.323644</v>
       </c>
       <c r="O5">
-        <v>0.01189824634951984</v>
+        <v>0.01224517063658978</v>
       </c>
       <c r="P5">
-        <v>0.01189824634951984</v>
+        <v>0.01439379333270538</v>
       </c>
       <c r="Q5">
-        <v>0.7901012930793873</v>
+        <v>0.9207358431613333</v>
       </c>
       <c r="R5">
-        <v>0.7901012930793873</v>
+        <v>5.524415058968</v>
       </c>
       <c r="S5">
-        <v>0.001501930190041083</v>
+        <v>0.00129579397025176</v>
       </c>
       <c r="T5">
-        <v>0.001501930190041083</v>
+        <v>0.001098402528902211</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.618930008237604</v>
+        <v>0.638861</v>
       </c>
       <c r="H6">
-        <v>0.618930008237604</v>
+        <v>1.277722</v>
       </c>
       <c r="I6">
-        <v>0.1262312231500984</v>
+        <v>0.1058208177499626</v>
       </c>
       <c r="J6">
-        <v>0.1262312231500984</v>
+        <v>0.07631084478658147</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.1299349819137</v>
+        <v>6.460321333333333</v>
       </c>
       <c r="N6">
-        <v>6.1299349819137</v>
+        <v>19.380964</v>
       </c>
       <c r="O6">
-        <v>0.05713438957710472</v>
+        <v>0.05488962811961477</v>
       </c>
       <c r="P6">
-        <v>0.05713438957710472</v>
+        <v>0.06452094353850663</v>
       </c>
       <c r="Q6">
-        <v>3.794000708851824</v>
+        <v>4.127247347334666</v>
       </c>
       <c r="R6">
-        <v>3.794000708851824</v>
+        <v>24.763484084008</v>
       </c>
       <c r="S6">
-        <v>0.007212143880252163</v>
+        <v>0.005808465333608974</v>
       </c>
       <c r="T6">
-        <v>0.007212143880252163</v>
+        <v>0.004923647707850766</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.618930008237604</v>
+        <v>0.638861</v>
       </c>
       <c r="H7">
-        <v>0.618930008237604</v>
+        <v>1.277722</v>
       </c>
       <c r="I7">
-        <v>0.1262312231500984</v>
+        <v>0.1058208177499626</v>
       </c>
       <c r="J7">
-        <v>0.1262312231500984</v>
+        <v>0.07631084478658147</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>36.8898378729875</v>
+        <v>42.6300515</v>
       </c>
       <c r="N7">
-        <v>36.8898378729875</v>
+        <v>85.260103</v>
       </c>
       <c r="O7">
-        <v>0.3438337233086778</v>
+        <v>0.362202985396654</v>
       </c>
       <c r="P7">
-        <v>0.3438337233086778</v>
+        <v>0.2838384247424566</v>
       </c>
       <c r="Q7">
-        <v>22.83222765861203</v>
+        <v>27.2346773313415</v>
       </c>
       <c r="R7">
-        <v>22.83222765861203</v>
+        <v>108.938709325366</v>
       </c>
       <c r="S7">
-        <v>0.0434025514535069</v>
+        <v>0.03832861610615167</v>
       </c>
       <c r="T7">
-        <v>0.0434025514535069</v>
+        <v>0.02165994997498939</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.08094893972871</v>
+        <v>3.515809666666667</v>
       </c>
       <c r="H8">
-        <v>3.08094893972871</v>
+        <v>10.547429</v>
       </c>
       <c r="I8">
-        <v>0.6283617661912632</v>
+        <v>0.5823580622074128</v>
       </c>
       <c r="J8">
-        <v>0.6283617661912632</v>
+        <v>0.6299361029367015</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.552684602533731</v>
+        <v>10.077153</v>
       </c>
       <c r="N8">
-        <v>9.552684602533731</v>
+        <v>20.154306</v>
       </c>
       <c r="O8">
-        <v>0.08903631199983512</v>
+        <v>0.08561976287781047</v>
       </c>
       <c r="P8">
-        <v>0.08903631199983512</v>
+        <v>0.06709546746404282</v>
       </c>
       <c r="Q8">
-        <v>29.43133349773907</v>
+        <v>35.429351929879</v>
       </c>
       <c r="R8">
-        <v>29.43133349773907</v>
+        <v>212.576111579274</v>
       </c>
       <c r="S8">
-        <v>0.05594701426337276</v>
+        <v>0.04986135919617988</v>
       </c>
       <c r="T8">
-        <v>0.05594701426337276</v>
+        <v>0.04226585729901539</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.08094893972871</v>
+        <v>3.515809666666667</v>
       </c>
       <c r="H9">
-        <v>3.08094893972871</v>
+        <v>10.547429</v>
       </c>
       <c r="I9">
-        <v>0.6283617661912632</v>
+        <v>0.5823580622074128</v>
       </c>
       <c r="J9">
-        <v>0.6283617661912632</v>
+        <v>0.6299361029367015</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>52.5510556573628</v>
+        <v>56.16712533333333</v>
       </c>
       <c r="N9">
-        <v>52.5510556573628</v>
+        <v>168.501376</v>
       </c>
       <c r="O9">
-        <v>0.4898049482538784</v>
+        <v>0.4772197020892965</v>
       </c>
       <c r="P9">
-        <v>0.4898049482538784</v>
+        <v>0.560955985835208</v>
       </c>
       <c r="Q9">
-        <v>161.9071192091764</v>
+        <v>197.4729221958116</v>
       </c>
       <c r="R9">
-        <v>161.9071192091764</v>
+        <v>1777.256299762304</v>
       </c>
       <c r="S9">
-        <v>0.3077747023740273</v>
+        <v>0.2779127409559216</v>
       </c>
       <c r="T9">
-        <v>0.3077747023740273</v>
+        <v>0.3533664276360465</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.08094893972871</v>
+        <v>3.515809666666667</v>
       </c>
       <c r="H10">
-        <v>3.08094893972871</v>
+        <v>10.547429</v>
       </c>
       <c r="I10">
-        <v>0.6283617661912632</v>
+        <v>0.5823580622074128</v>
       </c>
       <c r="J10">
-        <v>0.6283617661912632</v>
+        <v>0.6299361029367015</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.889687520140936</v>
+        <v>0.9207109999999999</v>
       </c>
       <c r="N10">
-        <v>0.889687520140936</v>
+        <v>2.762133</v>
       </c>
       <c r="O10">
-        <v>0.008292380510984035</v>
+        <v>0.007822750880034444</v>
       </c>
       <c r="P10">
-        <v>0.008292380510984035</v>
+        <v>0.009195385087080598</v>
       </c>
       <c r="Q10">
-        <v>2.741081821868082</v>
+        <v>3.237044634006334</v>
       </c>
       <c r="R10">
-        <v>2.741081821868082</v>
+        <v>29.133401706057</v>
       </c>
       <c r="S10">
-        <v>0.005210614863811937</v>
+        <v>0.004555642043628193</v>
       </c>
       <c r="T10">
-        <v>0.005210614863811937</v>
+        <v>0.005792505046757815</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.08094893972871</v>
+        <v>3.515809666666667</v>
       </c>
       <c r="H11">
-        <v>3.08094893972871</v>
+        <v>10.547429</v>
       </c>
       <c r="I11">
-        <v>0.6283617661912632</v>
+        <v>0.5823580622074128</v>
       </c>
       <c r="J11">
-        <v>0.6283617661912632</v>
+        <v>0.6299361029367015</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.27656000284942</v>
+        <v>1.441214666666667</v>
       </c>
       <c r="N11">
-        <v>1.27656000284942</v>
+        <v>4.323644</v>
       </c>
       <c r="O11">
-        <v>0.01189824634951984</v>
+        <v>0.01224517063658978</v>
       </c>
       <c r="P11">
-        <v>0.01189824634951984</v>
+        <v>0.01439379333270538</v>
       </c>
       <c r="Q11">
-        <v>3.933016187279</v>
+        <v>5.067036456808444</v>
       </c>
       <c r="R11">
-        <v>3.933016187279</v>
+        <v>45.603328111276</v>
       </c>
       <c r="S11">
-        <v>0.007476403090763038</v>
+        <v>0.007131073843323538</v>
       </c>
       <c r="T11">
-        <v>0.007476403090763038</v>
+        <v>0.009067170078480704</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.08094893972871</v>
+        <v>3.515809666666667</v>
       </c>
       <c r="H12">
-        <v>3.08094893972871</v>
+        <v>10.547429</v>
       </c>
       <c r="I12">
-        <v>0.6283617661912632</v>
+        <v>0.5823580622074128</v>
       </c>
       <c r="J12">
-        <v>0.6283617661912632</v>
+        <v>0.6299361029367015</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.1299349819137</v>
+        <v>6.460321333333333</v>
       </c>
       <c r="N12">
-        <v>6.1299349819137</v>
+        <v>19.380964</v>
       </c>
       <c r="O12">
-        <v>0.05713438957710472</v>
+        <v>0.05488962811961477</v>
       </c>
       <c r="P12">
-        <v>0.05713438957710472</v>
+        <v>0.06452094353850663</v>
       </c>
       <c r="Q12">
-        <v>18.88601668313294</v>
+        <v>22.71326019350622</v>
       </c>
       <c r="R12">
-        <v>18.88601668313294</v>
+        <v>204.419341741556</v>
       </c>
       <c r="S12">
-        <v>0.03590106594492922</v>
+        <v>0.03196541746702437</v>
       </c>
       <c r="T12">
-        <v>0.03590106594492922</v>
+        <v>0.04064407173044582</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.08094893972871</v>
+        <v>3.515809666666667</v>
       </c>
       <c r="H13">
-        <v>3.08094893972871</v>
+        <v>10.547429</v>
       </c>
       <c r="I13">
-        <v>0.6283617661912632</v>
+        <v>0.5823580622074128</v>
       </c>
       <c r="J13">
-        <v>0.6283617661912632</v>
+        <v>0.6299361029367015</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>36.8898378729875</v>
+        <v>42.6300515</v>
       </c>
       <c r="N13">
-        <v>36.8898378729875</v>
+        <v>85.260103</v>
       </c>
       <c r="O13">
-        <v>0.3438337233086778</v>
+        <v>0.362202985396654</v>
       </c>
       <c r="P13">
-        <v>0.3438337233086778</v>
+        <v>0.2838384247424566</v>
       </c>
       <c r="Q13">
-        <v>113.6557068815449</v>
+        <v>149.8791471541979</v>
       </c>
       <c r="R13">
-        <v>113.6557068815449</v>
+        <v>899.2748829251871</v>
       </c>
       <c r="S13">
-        <v>0.2160519656543589</v>
+        <v>0.2109318287013353</v>
       </c>
       <c r="T13">
-        <v>0.2160519656543589</v>
+        <v>0.1788000711459553</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.334556478181017</v>
+        <v>0.3944533333333333</v>
       </c>
       <c r="H14">
-        <v>0.334556478181017</v>
+        <v>1.18336</v>
       </c>
       <c r="I14">
-        <v>0.06823303587078063</v>
+        <v>0.06533717709725886</v>
       </c>
       <c r="J14">
-        <v>0.06823303587078063</v>
+        <v>0.0706751556963479</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>9.552684602533731</v>
+        <v>10.077153</v>
       </c>
       <c r="N14">
-        <v>9.552684602533731</v>
+        <v>20.154306</v>
       </c>
       <c r="O14">
-        <v>0.08903631199983512</v>
+        <v>0.08561976287781047</v>
       </c>
       <c r="P14">
-        <v>0.08903631199983512</v>
+        <v>0.06709546746404282</v>
       </c>
       <c r="Q14">
-        <v>3.195912517797713</v>
+        <v>3.974966591359999</v>
       </c>
       <c r="R14">
-        <v>3.195912517797713</v>
+        <v>23.84979954816</v>
       </c>
       <c r="S14">
-        <v>0.006075217870486765</v>
+        <v>0.005594153610172813</v>
       </c>
       <c r="T14">
-        <v>0.006075217870486765</v>
+        <v>0.004741982609540472</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.334556478181017</v>
+        <v>0.3944533333333333</v>
       </c>
       <c r="H15">
-        <v>0.334556478181017</v>
+        <v>1.18336</v>
       </c>
       <c r="I15">
-        <v>0.06823303587078063</v>
+        <v>0.06533717709725886</v>
       </c>
       <c r="J15">
-        <v>0.06823303587078063</v>
+        <v>0.0706751556963479</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>52.5510556573628</v>
+        <v>56.16712533333333</v>
       </c>
       <c r="N15">
-        <v>52.5510556573628</v>
+        <v>168.501376</v>
       </c>
       <c r="O15">
-        <v>0.4898049482538784</v>
+        <v>0.4772197020892965</v>
       </c>
       <c r="P15">
-        <v>0.4898049482538784</v>
+        <v>0.560955985835208</v>
       </c>
       <c r="Q15">
-        <v>17.58129610542191</v>
+        <v>22.15530981148444</v>
       </c>
       <c r="R15">
-        <v>17.58129610542191</v>
+        <v>199.39778830336</v>
       </c>
       <c r="S15">
-        <v>0.03342087860389274</v>
+        <v>0.03118018818970949</v>
       </c>
       <c r="T15">
-        <v>0.03342087860389274</v>
+        <v>0.03964565163770165</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.334556478181017</v>
+        <v>0.3944533333333333</v>
       </c>
       <c r="H16">
-        <v>0.334556478181017</v>
+        <v>1.18336</v>
       </c>
       <c r="I16">
-        <v>0.06823303587078063</v>
+        <v>0.06533717709725886</v>
       </c>
       <c r="J16">
-        <v>0.06823303587078063</v>
+        <v>0.0706751556963479</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.889687520140936</v>
+        <v>0.9207109999999999</v>
       </c>
       <c r="N16">
-        <v>0.889687520140936</v>
+        <v>2.762133</v>
       </c>
       <c r="O16">
-        <v>0.008292380510984035</v>
+        <v>0.007822750880034444</v>
       </c>
       <c r="P16">
-        <v>0.008292380510984035</v>
+        <v>0.009195385087080598</v>
       </c>
       <c r="Q16">
-        <v>0.2976507234199542</v>
+        <v>0.3631775229866666</v>
       </c>
       <c r="R16">
-        <v>0.2976507234199542</v>
+        <v>3.26859770688</v>
       </c>
       <c r="S16">
-        <v>0.0005658142968601359</v>
+        <v>0.0005111164596365482</v>
       </c>
       <c r="T16">
-        <v>0.0005658142968601359</v>
+        <v>0.0006498852727172969</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.334556478181017</v>
+        <v>0.3944533333333333</v>
       </c>
       <c r="H17">
-        <v>0.334556478181017</v>
+        <v>1.18336</v>
       </c>
       <c r="I17">
-        <v>0.06823303587078063</v>
+        <v>0.06533717709725886</v>
       </c>
       <c r="J17">
-        <v>0.06823303587078063</v>
+        <v>0.0706751556963479</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.27656000284942</v>
+        <v>1.441214666666667</v>
       </c>
       <c r="N17">
-        <v>1.27656000284942</v>
+        <v>4.323644</v>
       </c>
       <c r="O17">
-        <v>0.01189824634951984</v>
+        <v>0.01224517063658978</v>
       </c>
       <c r="P17">
-        <v>0.01189824634951984</v>
+        <v>0.01439379333270538</v>
       </c>
       <c r="Q17">
-        <v>0.427081418740051</v>
+        <v>0.5684919293155555</v>
       </c>
       <c r="R17">
-        <v>0.427081418740051</v>
+        <v>5.11642736384</v>
       </c>
       <c r="S17">
-        <v>0.0008118534699661721</v>
+        <v>0.0008000648824690207</v>
       </c>
       <c r="T17">
-        <v>0.0008118534699661721</v>
+        <v>0.001017283584850007</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.334556478181017</v>
+        <v>0.3944533333333333</v>
       </c>
       <c r="H18">
-        <v>0.334556478181017</v>
+        <v>1.18336</v>
       </c>
       <c r="I18">
-        <v>0.06823303587078063</v>
+        <v>0.06533717709725886</v>
       </c>
       <c r="J18">
-        <v>0.06823303587078063</v>
+        <v>0.0706751556963479</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>6.1299349819137</v>
+        <v>6.460321333333333</v>
       </c>
       <c r="N18">
-        <v>6.1299349819137</v>
+        <v>19.380964</v>
       </c>
       <c r="O18">
-        <v>0.05713438957710472</v>
+        <v>0.05488962811961477</v>
       </c>
       <c r="P18">
-        <v>0.05713438957710472</v>
+        <v>0.06452094353850663</v>
       </c>
       <c r="Q18">
-        <v>2.050809459027664</v>
+        <v>2.548295284337778</v>
       </c>
       <c r="R18">
-        <v>2.050809459027664</v>
+        <v>22.93465755904</v>
       </c>
       <c r="S18">
-        <v>0.003898452853469741</v>
+        <v>0.00358633335325395</v>
       </c>
       <c r="T18">
-        <v>0.003898452853469741</v>
+        <v>0.004560027730259228</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.334556478181017</v>
+        <v>0.3944533333333333</v>
       </c>
       <c r="H19">
-        <v>0.334556478181017</v>
+        <v>1.18336</v>
       </c>
       <c r="I19">
-        <v>0.06823303587078063</v>
+        <v>0.06533717709725886</v>
       </c>
       <c r="J19">
-        <v>0.06823303587078063</v>
+        <v>0.0706751556963479</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>36.8898378729875</v>
+        <v>42.6300515</v>
       </c>
       <c r="N19">
-        <v>36.8898378729875</v>
+        <v>85.260103</v>
       </c>
       <c r="O19">
-        <v>0.3438337233086778</v>
+        <v>0.362202985396654</v>
       </c>
       <c r="P19">
-        <v>0.3438337233086778</v>
+        <v>0.2838384247424566</v>
       </c>
       <c r="Q19">
-        <v>12.3417342394554</v>
+        <v>16.81556591434667</v>
       </c>
       <c r="R19">
-        <v>12.3417342394554</v>
+        <v>100.89339548608</v>
       </c>
       <c r="S19">
-        <v>0.02346081877610507</v>
+        <v>0.02366532060201705</v>
       </c>
       <c r="T19">
-        <v>0.02346081877610507</v>
+        <v>0.02006032486127924</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.151260163562026</v>
+        <v>0.4174183333333333</v>
       </c>
       <c r="H20">
-        <v>0.151260163562026</v>
+        <v>1.252255</v>
       </c>
       <c r="I20">
-        <v>0.03084961983777089</v>
+        <v>0.06914109544511213</v>
       </c>
       <c r="J20">
-        <v>0.03084961983777089</v>
+        <v>0.07478985016945827</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>9.552684602533731</v>
+        <v>10.077153</v>
       </c>
       <c r="N20">
-        <v>9.552684602533731</v>
+        <v>20.154306</v>
       </c>
       <c r="O20">
-        <v>0.08903631199983512</v>
+        <v>0.08561976287781047</v>
       </c>
       <c r="P20">
-        <v>0.08903631199983512</v>
+        <v>0.06709546746404282</v>
       </c>
       <c r="Q20">
-        <v>1.4449406354357</v>
+        <v>4.206388410004999</v>
       </c>
       <c r="R20">
-        <v>1.4449406354357</v>
+        <v>25.23833046003</v>
       </c>
       <c r="S20">
-        <v>0.002746736376952072</v>
+        <v>0.005919844197122562</v>
       </c>
       <c r="T20">
-        <v>0.002746736376952072</v>
+        <v>0.005018059958685525</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.151260163562026</v>
+        <v>0.4174183333333333</v>
       </c>
       <c r="H21">
-        <v>0.151260163562026</v>
+        <v>1.252255</v>
       </c>
       <c r="I21">
-        <v>0.03084961983777089</v>
+        <v>0.06914109544511213</v>
       </c>
       <c r="J21">
-        <v>0.03084961983777089</v>
+        <v>0.07478985016945827</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>52.5510556573628</v>
+        <v>56.16712533333333</v>
       </c>
       <c r="N21">
-        <v>52.5510556573628</v>
+        <v>168.501376</v>
       </c>
       <c r="O21">
-        <v>0.4898049482538784</v>
+        <v>0.4772197020892965</v>
       </c>
       <c r="P21">
-        <v>0.4898049482538784</v>
+        <v>0.560955985835208</v>
       </c>
       <c r="Q21">
-        <v>7.94888127408983</v>
+        <v>23.44518784476444</v>
       </c>
       <c r="R21">
-        <v>7.94888127408983</v>
+        <v>211.00669060288</v>
       </c>
       <c r="S21">
-        <v>0.01511029644829119</v>
+        <v>0.03299549297044403</v>
       </c>
       <c r="T21">
-        <v>0.01511029644829119</v>
+        <v>0.04195381413227596</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.151260163562026</v>
+        <v>0.4174183333333333</v>
       </c>
       <c r="H22">
-        <v>0.151260163562026</v>
+        <v>1.252255</v>
       </c>
       <c r="I22">
-        <v>0.03084961983777089</v>
+        <v>0.06914109544511213</v>
       </c>
       <c r="J22">
-        <v>0.03084961983777089</v>
+        <v>0.07478985016945827</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.889687520140936</v>
+        <v>0.9207109999999999</v>
       </c>
       <c r="N22">
-        <v>0.889687520140936</v>
+        <v>2.762133</v>
       </c>
       <c r="O22">
-        <v>0.008292380510984035</v>
+        <v>0.007822750880034444</v>
       </c>
       <c r="P22">
-        <v>0.008292380510984035</v>
+        <v>0.009195385087080598</v>
       </c>
       <c r="Q22">
-        <v>0.1345742798156113</v>
+        <v>0.3843216511016666</v>
       </c>
       <c r="R22">
-        <v>0.1345742798156113</v>
+        <v>3.458894859915</v>
       </c>
       <c r="S22">
-        <v>0.0002558167863139978</v>
+        <v>0.0005408735652397965</v>
       </c>
       <c r="T22">
-        <v>0.0002558167863139978</v>
+        <v>0.0006877214729132289</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.151260163562026</v>
+        <v>0.4174183333333333</v>
       </c>
       <c r="H23">
-        <v>0.151260163562026</v>
+        <v>1.252255</v>
       </c>
       <c r="I23">
-        <v>0.03084961983777089</v>
+        <v>0.06914109544511213</v>
       </c>
       <c r="J23">
-        <v>0.03084961983777089</v>
+        <v>0.07478985016945827</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.27656000284942</v>
+        <v>1.441214666666667</v>
       </c>
       <c r="N23">
-        <v>1.27656000284942</v>
+        <v>4.323644</v>
       </c>
       <c r="O23">
-        <v>0.01189824634951984</v>
+        <v>0.01224517063658978</v>
       </c>
       <c r="P23">
-        <v>0.01189824634951984</v>
+        <v>0.01439379333270538</v>
       </c>
       <c r="Q23">
-        <v>0.1930926748277436</v>
+        <v>0.6015894241355554</v>
       </c>
       <c r="R23">
-        <v>0.1930926748277436</v>
+        <v>5.41430481722</v>
       </c>
       <c r="S23">
-        <v>0.0003670563766188324</v>
+        <v>0.0008466445117261386</v>
       </c>
       <c r="T23">
-        <v>0.0003670563766188324</v>
+        <v>0.001076509646723183</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.151260163562026</v>
+        <v>0.4174183333333333</v>
       </c>
       <c r="H24">
-        <v>0.151260163562026</v>
+        <v>1.252255</v>
       </c>
       <c r="I24">
-        <v>0.03084961983777089</v>
+        <v>0.06914109544511213</v>
       </c>
       <c r="J24">
-        <v>0.03084961983777089</v>
+        <v>0.07478985016945827</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>6.1299349819137</v>
+        <v>6.460321333333333</v>
       </c>
       <c r="N24">
-        <v>6.1299349819137</v>
+        <v>19.380964</v>
       </c>
       <c r="O24">
-        <v>0.05713438957710472</v>
+        <v>0.05488962811961477</v>
       </c>
       <c r="P24">
-        <v>0.05713438957710472</v>
+        <v>0.06452094353850663</v>
       </c>
       <c r="Q24">
-        <v>0.9272149679888513</v>
+        <v>2.696656563757777</v>
       </c>
       <c r="R24">
-        <v>0.9272149679888513</v>
+        <v>24.26990907382</v>
       </c>
       <c r="S24">
-        <v>0.00176257419811678</v>
+        <v>0.003795129016764995</v>
       </c>
       <c r="T24">
-        <v>0.00176257419811678</v>
+        <v>0.004825511700036987</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,61 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.151260163562026</v>
+        <v>0.4174183333333333</v>
       </c>
       <c r="H25">
-        <v>0.151260163562026</v>
+        <v>1.252255</v>
       </c>
       <c r="I25">
-        <v>0.03084961983777089</v>
+        <v>0.06914109544511213</v>
       </c>
       <c r="J25">
-        <v>0.03084961983777089</v>
+        <v>0.07478985016945827</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>36.8898378729875</v>
+        <v>42.6300515</v>
       </c>
       <c r="N25">
-        <v>36.8898378729875</v>
+        <v>85.260103</v>
       </c>
       <c r="O25">
-        <v>0.3438337233086778</v>
+        <v>0.362202985396654</v>
       </c>
       <c r="P25">
-        <v>0.3438337233086778</v>
+        <v>0.2838384247424566</v>
       </c>
       <c r="Q25">
-        <v>5.579962910444711</v>
+        <v>17.79456504704417</v>
       </c>
       <c r="R25">
-        <v>5.579962910444711</v>
+        <v>106.767390282265</v>
       </c>
       <c r="S25">
-        <v>0.01060713965147801</v>
+        <v>0.02504311118381461</v>
       </c>
       <c r="T25">
-        <v>0.01060713965147801</v>
+        <v>0.02122823325882339</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,61 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.717449549759424</v>
+        <v>0.341576</v>
       </c>
       <c r="H26">
-        <v>0.717449549759424</v>
+        <v>1.024728</v>
       </c>
       <c r="I26">
-        <v>0.1463243549500871</v>
+        <v>0.0565785853945713</v>
       </c>
       <c r="J26">
-        <v>0.1463243549500871</v>
+        <v>0.06120099627028732</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>9.552684602533731</v>
+        <v>10.077153</v>
       </c>
       <c r="N26">
-        <v>9.552684602533731</v>
+        <v>20.154306</v>
       </c>
       <c r="O26">
-        <v>0.08903631199983512</v>
+        <v>0.08561976287781047</v>
       </c>
       <c r="P26">
-        <v>0.08903631199983512</v>
+        <v>0.06709546746404282</v>
       </c>
       <c r="Q26">
-        <v>6.853569267081607</v>
+        <v>3.442113613128</v>
       </c>
       <c r="R26">
-        <v>6.853569267081607</v>
+        <v>20.652681678768</v>
       </c>
       <c r="S26">
-        <v>0.01302818092051057</v>
+        <v>0.004844245065445145</v>
       </c>
       <c r="T26">
-        <v>0.01302818092051057</v>
+        <v>0.004106309454020069</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,61 +2078,61 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.717449549759424</v>
+        <v>0.341576</v>
       </c>
       <c r="H27">
-        <v>0.717449549759424</v>
+        <v>1.024728</v>
       </c>
       <c r="I27">
-        <v>0.1463243549500871</v>
+        <v>0.0565785853945713</v>
       </c>
       <c r="J27">
-        <v>0.1463243549500871</v>
+        <v>0.06120099627028732</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>52.5510556573628</v>
+        <v>56.16712533333333</v>
       </c>
       <c r="N27">
-        <v>52.5510556573628</v>
+        <v>168.501376</v>
       </c>
       <c r="O27">
-        <v>0.4898049482538784</v>
+        <v>0.4772197020892965</v>
       </c>
       <c r="P27">
-        <v>0.4898049482538784</v>
+        <v>0.560955985835208</v>
       </c>
       <c r="Q27">
-        <v>37.70273122075737</v>
+        <v>19.18534200285867</v>
       </c>
       <c r="R27">
-        <v>37.70273122075737</v>
+        <v>172.668078025728</v>
       </c>
       <c r="S27">
-        <v>0.07167039310460953</v>
+        <v>0.02700041566663114</v>
       </c>
       <c r="T27">
-        <v>0.07167039310460953</v>
+        <v>0.03433106519689591</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,61 +2140,61 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.717449549759424</v>
+        <v>0.341576</v>
       </c>
       <c r="H28">
-        <v>0.717449549759424</v>
+        <v>1.024728</v>
       </c>
       <c r="I28">
-        <v>0.1463243549500871</v>
+        <v>0.0565785853945713</v>
       </c>
       <c r="J28">
-        <v>0.1463243549500871</v>
+        <v>0.06120099627028732</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.889687520140936</v>
+        <v>0.9207109999999999</v>
       </c>
       <c r="N28">
-        <v>0.889687520140936</v>
+        <v>2.762133</v>
       </c>
       <c r="O28">
-        <v>0.008292380510984035</v>
+        <v>0.007822750880034444</v>
       </c>
       <c r="P28">
-        <v>0.008292380510984035</v>
+        <v>0.009195385087080598</v>
       </c>
       <c r="Q28">
-        <v>0.638305910751693</v>
+        <v>0.314492780536</v>
       </c>
       <c r="R28">
-        <v>0.638305910751693</v>
+        <v>2.830435024824</v>
       </c>
       <c r="S28">
-        <v>0.001213377229270412</v>
+        <v>0.0004426001786864866</v>
       </c>
       <c r="T28">
-        <v>0.001213377229270412</v>
+        <v>0.0005627667284182754</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,61 +2202,61 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.717449549759424</v>
+        <v>0.341576</v>
       </c>
       <c r="H29">
-        <v>0.717449549759424</v>
+        <v>1.024728</v>
       </c>
       <c r="I29">
-        <v>0.1463243549500871</v>
+        <v>0.0565785853945713</v>
       </c>
       <c r="J29">
-        <v>0.1463243549500871</v>
+        <v>0.06120099627028732</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.27656000284942</v>
+        <v>1.441214666666667</v>
       </c>
       <c r="N29">
-        <v>1.27656000284942</v>
+        <v>4.323644</v>
       </c>
       <c r="O29">
-        <v>0.01189824634951984</v>
+        <v>0.01224517063658978</v>
       </c>
       <c r="P29">
-        <v>0.01189824634951984</v>
+        <v>0.01439379333270538</v>
       </c>
       <c r="Q29">
-        <v>0.9158673992852053</v>
+        <v>0.4922843409813333</v>
       </c>
       <c r="R29">
-        <v>0.9158673992852053</v>
+        <v>4.430559068832</v>
       </c>
       <c r="S29">
-        <v>0.001741003222130719</v>
+        <v>0.000692814432533392</v>
       </c>
       <c r="T29">
-        <v>0.001741003222130719</v>
+        <v>0.0008809144920701884</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,61 +2264,61 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.717449549759424</v>
+        <v>0.341576</v>
       </c>
       <c r="H30">
-        <v>0.717449549759424</v>
+        <v>1.024728</v>
       </c>
       <c r="I30">
-        <v>0.1463243549500871</v>
+        <v>0.0565785853945713</v>
       </c>
       <c r="J30">
-        <v>0.1463243549500871</v>
+        <v>0.06120099627028732</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>6.1299349819137</v>
+        <v>6.460321333333333</v>
       </c>
       <c r="N30">
-        <v>6.1299349819137</v>
+        <v>19.380964</v>
       </c>
       <c r="O30">
-        <v>0.05713438957710472</v>
+        <v>0.05488962811961477</v>
       </c>
       <c r="P30">
-        <v>0.05713438957710472</v>
+        <v>0.06452094353850663</v>
       </c>
       <c r="Q30">
-        <v>4.397919092828527</v>
+        <v>2.206690719754667</v>
       </c>
       <c r="R30">
-        <v>4.397919092828527</v>
+        <v>19.860216477792</v>
       </c>
       <c r="S30">
-        <v>0.008360152700336826</v>
+        <v>0.003105577511841886</v>
       </c>
       <c r="T30">
-        <v>0.008360152700336826</v>
+        <v>0.003948746024855562</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.341576</v>
+      </c>
+      <c r="H31">
+        <v>1.024728</v>
+      </c>
+      <c r="I31">
+        <v>0.0565785853945713</v>
+      </c>
+      <c r="J31">
+        <v>0.06120099627028732</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>42.6300515</v>
+      </c>
+      <c r="N31">
+        <v>85.260103</v>
+      </c>
+      <c r="O31">
+        <v>0.362202985396654</v>
+      </c>
+      <c r="P31">
+        <v>0.2838384247424566</v>
+      </c>
+      <c r="Q31">
+        <v>14.561402471164</v>
+      </c>
+      <c r="R31">
+        <v>87.36841482698401</v>
+      </c>
+      <c r="S31">
+        <v>0.02049293253943325</v>
+      </c>
+      <c r="T31">
+        <v>0.01737119437402731</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.7290775</v>
+      </c>
+      <c r="H32">
+        <v>1.458155</v>
+      </c>
+      <c r="I32">
+        <v>0.1207642621056823</v>
+      </c>
+      <c r="J32">
+        <v>0.08708705014062347</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>10.077153</v>
+      </c>
+      <c r="N32">
+        <v>20.154306</v>
+      </c>
+      <c r="O32">
+        <v>0.08561976287781047</v>
+      </c>
+      <c r="P32">
+        <v>0.06709546746404282</v>
+      </c>
+      <c r="Q32">
+        <v>7.3470255163575</v>
+      </c>
+      <c r="R32">
+        <v>29.38810206543</v>
+      </c>
+      <c r="S32">
+        <v>0.01033980748560227</v>
+      </c>
+      <c r="T32">
+        <v>0.005843146339249668</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.7290775</v>
+      </c>
+      <c r="H33">
+        <v>1.458155</v>
+      </c>
+      <c r="I33">
+        <v>0.1207642621056823</v>
+      </c>
+      <c r="J33">
+        <v>0.08708705014062347</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>56.16712533333333</v>
+      </c>
+      <c r="N33">
+        <v>168.501376</v>
+      </c>
+      <c r="O33">
+        <v>0.4772197020892965</v>
+      </c>
+      <c r="P33">
+        <v>0.560955985835208</v>
+      </c>
+      <c r="Q33">
+        <v>40.95018732021333</v>
+      </c>
+      <c r="R33">
+        <v>245.70112392128</v>
+      </c>
+      <c r="S33">
+        <v>0.05763108518510746</v>
+      </c>
+      <c r="T33">
+        <v>0.04885200206511363</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.7290775</v>
+      </c>
+      <c r="H34">
+        <v>1.458155</v>
+      </c>
+      <c r="I34">
+        <v>0.1207642621056823</v>
+      </c>
+      <c r="J34">
+        <v>0.08708705014062347</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>0.9207109999999999</v>
+      </c>
+      <c r="N34">
+        <v>2.762133</v>
+      </c>
+      <c r="O34">
+        <v>0.007822750880034444</v>
+      </c>
+      <c r="P34">
+        <v>0.009195385087080598</v>
+      </c>
+      <c r="Q34">
+        <v>0.6712696741025</v>
+      </c>
+      <c r="R34">
+        <v>4.027618044615</v>
+      </c>
+      <c r="S34">
+        <v>0.0009447087376639369</v>
+      </c>
+      <c r="T34">
+        <v>0.0008007989621409293</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.7290775</v>
+      </c>
+      <c r="H35">
+        <v>1.458155</v>
+      </c>
+      <c r="I35">
+        <v>0.1207642621056823</v>
+      </c>
+      <c r="J35">
+        <v>0.08708705014062347</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1.441214666666667</v>
+      </c>
+      <c r="N35">
+        <v>4.323644</v>
+      </c>
+      <c r="O35">
+        <v>0.01224517063658978</v>
+      </c>
+      <c r="P35">
+        <v>0.01439379333270538</v>
+      </c>
+      <c r="Q35">
+        <v>1.050757186136667</v>
+      </c>
+      <c r="R35">
+        <v>6.304543116820001</v>
+      </c>
+      <c r="S35">
+        <v>0.001478778996285934</v>
+      </c>
+      <c r="T35">
+        <v>0.001253513001679085</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>0.717449549759424</v>
-      </c>
-      <c r="H31">
-        <v>0.717449549759424</v>
-      </c>
-      <c r="I31">
-        <v>0.1463243549500871</v>
-      </c>
-      <c r="J31">
-        <v>0.1463243549500871</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>36.8898378729875</v>
-      </c>
-      <c r="N31">
-        <v>36.8898378729875</v>
-      </c>
-      <c r="O31">
-        <v>0.3438337233086778</v>
-      </c>
-      <c r="P31">
-        <v>0.3438337233086778</v>
-      </c>
-      <c r="Q31">
-        <v>26.46659757267303</v>
-      </c>
-      <c r="R31">
-        <v>26.46659757267303</v>
-      </c>
-      <c r="S31">
-        <v>0.05031124777322899</v>
-      </c>
-      <c r="T31">
-        <v>0.05031124777322899</v>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.7290775</v>
+      </c>
+      <c r="H36">
+        <v>1.458155</v>
+      </c>
+      <c r="I36">
+        <v>0.1207642621056823</v>
+      </c>
+      <c r="J36">
+        <v>0.08708705014062347</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>6.460321333333333</v>
+      </c>
+      <c r="N36">
+        <v>19.380964</v>
+      </c>
+      <c r="O36">
+        <v>0.05488962811961477</v>
+      </c>
+      <c r="P36">
+        <v>0.06452094353850663</v>
+      </c>
+      <c r="Q36">
+        <v>4.710074926903333</v>
+      </c>
+      <c r="R36">
+        <v>28.26044956142</v>
+      </c>
+      <c r="S36">
+        <v>0.00662870543712059</v>
+      </c>
+      <c r="T36">
+        <v>0.005618938645058262</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.7290775</v>
+      </c>
+      <c r="H37">
+        <v>1.458155</v>
+      </c>
+      <c r="I37">
+        <v>0.1207642621056823</v>
+      </c>
+      <c r="J37">
+        <v>0.08708705014062347</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>42.6300515</v>
+      </c>
+      <c r="N37">
+        <v>85.260103</v>
+      </c>
+      <c r="O37">
+        <v>0.362202985396654</v>
+      </c>
+      <c r="P37">
+        <v>0.2838384247424566</v>
+      </c>
+      <c r="Q37">
+        <v>31.08061137249125</v>
+      </c>
+      <c r="R37">
+        <v>124.322445489965</v>
+      </c>
+      <c r="S37">
+        <v>0.04374117626390216</v>
+      </c>
+      <c r="T37">
+        <v>0.0247186511273819</v>
       </c>
     </row>
   </sheetData>
